--- a/Experiments/230111_Cofactors/genex_destination.xlsx
+++ b/Experiments/230111_Cofactors/genex_destination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/Carothers/ARPA-E/Experiments/230111_Cofactors/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/GitHub/WHISPR/Experiments/230111_Cofactors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739B9939-98AB-0F43-BC4B-DB2605A1F7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A422E6-0B65-674F-86EC-38F2E37DA353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="23260" windowHeight="12460" xr2:uid="{76D38BF9-860E-4B75-9878-D13CDDC495A6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t>old_GFP_0</t>
   </si>
@@ -275,7 +275,7 @@
     <t>0B</t>
   </si>
   <si>
-    <t>00</t>
+    <t>no_cofactor</t>
   </si>
 </sst>
 </file>
@@ -639,7 +639,7 @@
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -992,6 +992,9 @@
       <c r="F14" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="G14" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="15" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
